--- a/test2.xlsx
+++ b/test2.xlsx
@@ -45,9 +45,6 @@
     <t>What is Dr. Huettemans favorite color?</t>
   </si>
   <si>
-    <t>Thirty seven</t>
-  </si>
-  <si>
     <t>What is the capital of Pennsylvania?</t>
   </si>
   <si>
@@ -84,7 +81,10 @@
     <t>Every day</t>
   </si>
   <si>
-    <t>Harrisburgh</t>
+    <t>One hundred thirty seven</t>
+  </si>
+  <si>
+    <t>Harisburgh</t>
   </si>
 </sst>
 </file>
@@ -351,7 +351,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -369,7 +369,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>0</v>
@@ -377,10 +377,10 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -404,12 +404,12 @@
         <v>7</v>
       </c>
       <c r="B6" t="s">
-        <v>8</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>21</v>
@@ -417,34 +417,34 @@
     </row>
     <row r="8" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>15</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>17</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>19</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
